--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/150.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/150.xlsx
@@ -479,13 +479,13 @@
         <v>-0.5970785632973423</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.217132697491881</v>
+        <v>-5.869482661758076</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.50364588423048</v>
+        <v>-3.554474353184578</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.267101064988534</v>
+        <v>-6.835555307667336</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.5077878162673904</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.983435633812129</v>
+        <v>-6.536323642377807</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.31349285114869</v>
+        <v>-3.503237561219309</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.499038086196195</v>
+        <v>-6.650706847036149</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3554929699652146</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.506094912919671</v>
+        <v>-7.086542253194149</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.781141024989705</v>
+        <v>-3.677071089379337</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.577716873705458</v>
+        <v>-6.31150755060959</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1478743495037641</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.261050464301811</v>
+        <v>-7.656219111340812</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.09788764831774</v>
+        <v>-3.389177031014183</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3773287956855643</v>
+        <v>-5.817008951055477</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1081527124048239</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.703141263808245</v>
+        <v>-8.539589317089341</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.956035467639853</v>
+        <v>-3.514394274889609</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5662837526770891</v>
+        <v>-5.282034263650177</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.4010801542935327</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.809083507173076</v>
+        <v>-9.363069188718159</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.912386414332037</v>
+        <v>-3.446808643961377</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9523832919779633</v>
+        <v>-4.856974228626857</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.7179011430641796</v>
       </c>
       <c r="E8" t="n">
-        <v>-10.43700799313216</v>
+        <v>-9.941932490767757</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.093915239300589</v>
+        <v>-3.401169764858726</v>
       </c>
       <c r="G8" t="n">
-        <v>1.513817284547008</v>
+        <v>-4.304785348043148</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>1.045001289986218</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.23484013473715</v>
+        <v>-10.62860328323969</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.949489087445055</v>
+        <v>-3.275131167829659</v>
       </c>
       <c r="G9" t="n">
-        <v>1.978678724473882</v>
+        <v>-3.797169543065103</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>1.369972944212265</v>
       </c>
       <c r="E10" t="n">
-        <v>-11.59322878311635</v>
+        <v>-10.99136270375792</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.958049738469023</v>
+        <v>-3.157056762986795</v>
       </c>
       <c r="G10" t="n">
-        <v>1.617019330500716</v>
+        <v>-3.701628570871851</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>1.680805144207571</v>
       </c>
       <c r="E11" t="n">
-        <v>-12.37764548987852</v>
+        <v>-11.71283344710856</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.108768042162277</v>
+        <v>-3.216027963815524</v>
       </c>
       <c r="G11" t="n">
-        <v>2.176991510016554</v>
+        <v>-3.148985012649519</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.971586497970031</v>
       </c>
       <c r="E12" t="n">
-        <v>-13.39089216304664</v>
+        <v>-12.42163188466015</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.947073918052799</v>
+        <v>-2.906617386229077</v>
       </c>
       <c r="G12" t="n">
-        <v>2.50492653462174</v>
+        <v>-2.577357440762956</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.238630372806888</v>
       </c>
       <c r="E13" t="n">
-        <v>-14.28454883924316</v>
+        <v>-13.31822685398368</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.262629977270957</v>
+        <v>-2.865456837416521</v>
       </c>
       <c r="G13" t="n">
-        <v>2.847968590445695</v>
+        <v>-1.876562307452501</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>2.481362941649192</v>
       </c>
       <c r="E14" t="n">
-        <v>-14.67709697860149</v>
+        <v>-13.8770647839064</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.245611344367226</v>
+        <v>-2.714420748276917</v>
       </c>
       <c r="G14" t="n">
-        <v>3.734032638977892</v>
+        <v>-1.340663597749353</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.702778494900967</v>
       </c>
       <c r="E15" t="n">
-        <v>-15.56622643443924</v>
+        <v>-14.69014084892242</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.957399500555723</v>
+        <v>-2.470601086817001</v>
       </c>
       <c r="G15" t="n">
-        <v>4.263971649310271</v>
+        <v>-0.6796356462943832</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.908085098538521</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.52231826376748</v>
+        <v>-15.21448194639218</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.792317294687473</v>
+        <v>-2.188911178165963</v>
       </c>
       <c r="G16" t="n">
-        <v>4.532021228802617</v>
+        <v>-0.4551422289793826</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.103416445376039</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.8380673478191</v>
+        <v>-16.34724528142891</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.529146944048308</v>
+        <v>-1.83553376182535</v>
       </c>
       <c r="G17" t="n">
-        <v>5.029893243094901</v>
+        <v>-0.1002883325649618</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>3.299261569092996</v>
       </c>
       <c r="E18" t="n">
-        <v>-17.73421741751774</v>
+        <v>-17.26535676997373</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.486500137148209</v>
+        <v>-1.653618705314312</v>
       </c>
       <c r="G18" t="n">
-        <v>5.087554190083296</v>
+        <v>0.04110174602621848</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.503557188992431</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.40248598814262</v>
+        <v>-18.09043045784117</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.703325238130236</v>
+        <v>-1.084181408504127</v>
       </c>
       <c r="G19" t="n">
-        <v>5.292941368562393</v>
+        <v>0.247779622318181</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.722382418386236</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.21990349125646</v>
+        <v>-18.82875849686893</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.459583800780192</v>
+        <v>-0.8215586266340572</v>
       </c>
       <c r="G20" t="n">
-        <v>4.963451639773527</v>
+        <v>0.02412711418428978</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.957855111458961</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.24761184673692</v>
+        <v>-19.43868165954403</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7607247141890345</v>
+        <v>-0.3372291613631279</v>
       </c>
       <c r="G21" t="n">
-        <v>4.41368281758894</v>
+        <v>-0.3974763929841208</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>4.206873742133707</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.24835244033947</v>
+        <v>-20.1272396086666</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2012854364216908</v>
+        <v>0.1721173520458052</v>
       </c>
       <c r="G22" t="n">
-        <v>3.685220794418613</v>
+        <v>-0.6260814650741968</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.461464668503315</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.78840934132071</v>
+        <v>-20.4480513502667</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3668220505206931</v>
+        <v>0.4521058863071574</v>
       </c>
       <c r="G23" t="n">
-        <v>3.337441290940618</v>
+        <v>-0.6952120221723742</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.714560790441983</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.32638098993543</v>
+        <v>-20.70307172645871</v>
       </c>
       <c r="F24" t="n">
-        <v>1.022946328088147</v>
+        <v>0.6449527621726175</v>
       </c>
       <c r="G24" t="n">
-        <v>2.400815133390787</v>
+        <v>-1.250055633484818</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.955733635767356</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.8776458482213</v>
+        <v>-21.21396316603759</v>
       </c>
       <c r="F25" t="n">
-        <v>1.636208682453357</v>
+        <v>0.9863227776480868</v>
       </c>
       <c r="G25" t="n">
-        <v>1.536267604079882</v>
+        <v>-1.713895270976507</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>5.176652252076291</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.31787158254578</v>
+        <v>-21.33155355920063</v>
       </c>
       <c r="F26" t="n">
-        <v>1.693786516325015</v>
+        <v>1.084039357897116</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8012396446872877</v>
+        <v>-2.261762269489862</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.369254966335046</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.00600418807093</v>
+        <v>-21.65956680791569</v>
       </c>
       <c r="F27" t="n">
-        <v>1.928742408335213</v>
+        <v>1.059892552981423</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.08290302414621227</v>
+        <v>-2.680520374661729</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>5.526648841832737</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.75789197858186</v>
+        <v>-21.64591181173639</v>
       </c>
       <c r="F28" t="n">
-        <v>2.083200802281657</v>
+        <v>1.088077677569188</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.9832869737916037</v>
+        <v>-3.087901760854284</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.644500296933516</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.70313510167242</v>
+        <v>-21.5876446278965</v>
       </c>
       <c r="F29" t="n">
-        <v>1.81323473209748</v>
+        <v>0.9523881809848302</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.708111575852946</v>
+        <v>-3.463607271556097</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.724483338417055</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.47731187448962</v>
+        <v>-21.24864578075148</v>
       </c>
       <c r="F30" t="n">
-        <v>1.588149744951583</v>
+        <v>0.9515668278311885</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.286302548520559</v>
+        <v>-4.22920619088751</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.769060055134807</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.51346608027045</v>
+        <v>-21.21019863075007</v>
       </c>
       <c r="F31" t="n">
-        <v>1.757236047443837</v>
+        <v>0.9574483030920872</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.520173081006303</v>
+        <v>-4.463223393579261</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.785151512279258</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.32637845449421</v>
+        <v>-21.07846434072104</v>
       </c>
       <c r="F32" t="n">
-        <v>1.74022719255384</v>
+        <v>0.7770292826823249</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.593686541822886</v>
+        <v>-5.046809476262298</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.778779741908968</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.97287392397507</v>
+        <v>-20.72217307628775</v>
       </c>
       <c r="F33" t="n">
-        <v>1.19656473994603</v>
+        <v>0.641422899214705</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.771401941435244</v>
+        <v>-5.158806845569585</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.75462007083132</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.66782922952077</v>
+        <v>-20.40432407284901</v>
       </c>
       <c r="F34" t="n">
-        <v>1.399922980575358</v>
+        <v>0.6159267284037435</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.718776671519772</v>
+        <v>-5.43123208620782</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.716706572583174</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.12313030745718</v>
+        <v>-19.79384356339107</v>
       </c>
       <c r="F35" t="n">
-        <v>0.79800312214139</v>
+        <v>0.3596645444675296</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.804686300185201</v>
+        <v>-5.240238143944921</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.669711575843973</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.65539902049942</v>
+        <v>-19.44035858889939</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5430267470111747</v>
+        <v>0.2421132633594266</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.201365650346079</v>
+        <v>-5.4013113641823</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.615904934964854</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.31508014150034</v>
+        <v>-18.9956691913054</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6605144710300078</v>
+        <v>0.2996030951074795</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.375436386276936</v>
+        <v>-4.987813830399235</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.559357945389564</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.92060573343644</v>
+        <v>-18.62326864924563</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03951770780133804</v>
+        <v>-0.05824287350949327</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.048870283594485</v>
+        <v>-4.741241658073246</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.501247865189624</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.78521446627097</v>
+        <v>-18.12896560996619</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2703573254374652</v>
+        <v>-0.06557149480299877</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.081294177135865</v>
+        <v>-4.794033154222194</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.440917995360392</v>
       </c>
       <c r="E40" t="n">
-        <v>-18.82762913628267</v>
+        <v>-17.57661539215587</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.8970840047141593</v>
+        <v>-0.2824918404811481</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.293963622281015</v>
+        <v>-4.496986875002175</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.377893802564424</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.2315174180066</v>
+        <v>-16.83952427186544</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.480938982774876</v>
+        <v>-0.5452612925572258</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.982113430267978</v>
+        <v>-4.534593115822485</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.313106955316535</v>
       </c>
       <c r="E42" t="n">
-        <v>-17.51716506865419</v>
+        <v>-16.22141202268825</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.922802534399782</v>
+        <v>-0.6636290378121036</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.992500216294522</v>
+        <v>-4.27481573594896</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>5.247259069650584</v>
       </c>
       <c r="E43" t="n">
-        <v>-16.93705018084666</v>
+        <v>-15.70463910784847</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.932238317652928</v>
+        <v>-0.7237198212133552</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.449879122149366</v>
+        <v>-3.808526706016946</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>5.183584348344504</v>
       </c>
       <c r="E44" t="n">
-        <v>-16.41803321185497</v>
+        <v>-15.10516375284796</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.018822629265992</v>
+        <v>-0.8127681922873441</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.302172446686131</v>
+        <v>-3.973511131747858</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>5.122713513009145</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.57059467113705</v>
+        <v>-14.64558244033736</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.389771136286297</v>
+        <v>-0.9547791747506226</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.279961688489736</v>
+        <v>-4.042988808333586</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>5.063527407238102</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.36687717944079</v>
+        <v>-13.69908537792323</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.468885045406715</v>
+        <v>-1.102896526790678</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.7286479401352055</v>
+        <v>-3.77655749011419</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>5.005353668670283</v>
       </c>
       <c r="E47" t="n">
-        <v>-14.99267748285398</v>
+        <v>-13.26485356601757</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.905228908278874</v>
+        <v>-1.280724373560975</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.5691000900403032</v>
+        <v>-3.888334854112466</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.947527784327726</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.18054988517014</v>
+        <v>-12.50760995942172</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.926310305889011</v>
+        <v>-1.371835905532802</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1481565987989261</v>
+        <v>-3.780175355195706</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>4.888690457455074</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.31981813478108</v>
+        <v>-12.217789632351</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.346970234732107</v>
+        <v>-1.518946122158273</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1183385459176118</v>
+        <v>-3.727633198396972</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.82844425256912</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.64965751849871</v>
+        <v>-11.61683290826981</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.808712488277889</v>
+        <v>-1.779525299157973</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08733708396663314</v>
+        <v>-3.911029623988685</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.76360766386717</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.93848791261667</v>
+        <v>-11.19271645157181</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.697120906540555</v>
+        <v>-1.703481686349978</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1931351925666726</v>
+        <v>-4.041507439252912</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.689500066620626</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.49707903863038</v>
+        <v>-10.7172800897918</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.828620524239967</v>
+        <v>-1.848206067624394</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3150425787931969</v>
+        <v>-4.019272236022182</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.602152264610913</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.81532658706656</v>
+        <v>-10.10921474972612</v>
       </c>
       <c r="F53" t="n">
-        <v>-4.208457245744323</v>
+        <v>-1.853241744697316</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08933695718307234</v>
+        <v>-4.186153596417457</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>4.49785242622868</v>
       </c>
       <c r="E54" t="n">
-        <v>-10.91378394279371</v>
+        <v>-9.629554286013093</v>
       </c>
       <c r="F54" t="n">
-        <v>-4.321681755775206</v>
+        <v>-1.960985678030388</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1091224985656062</v>
+        <v>-4.125740138562989</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>4.373896297052384</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.32343147460686</v>
+        <v>-8.868091466491089</v>
       </c>
       <c r="F55" t="n">
-        <v>-4.545476045108238</v>
+        <v>-2.129930199323501</v>
       </c>
       <c r="G55" t="n">
-        <v>0.508119237981402</v>
+        <v>-4.262646997857208</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>4.229142726985993</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.696548347110427</v>
+        <v>-8.474482412642633</v>
       </c>
       <c r="F56" t="n">
-        <v>-4.626335329680145</v>
+        <v>-2.252487823463325</v>
       </c>
       <c r="G56" t="n">
-        <v>1.014581237338855</v>
+        <v>-4.228780847290088</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>4.061399732629074</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.190330798096321</v>
+        <v>-8.048855252822753</v>
       </c>
       <c r="F57" t="n">
-        <v>-4.31387890081561</v>
+        <v>-2.089654560753856</v>
       </c>
       <c r="G57" t="n">
-        <v>0.786161947509722</v>
+        <v>-4.206007853303999</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>3.868944281442254</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.7350664786492</v>
+        <v>-7.662213033759651</v>
       </c>
       <c r="F58" t="n">
-        <v>-4.527323162611383</v>
+        <v>-2.161527850704372</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9412363563213972</v>
+        <v>-4.387419342107744</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>3.651675881442566</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.940563750720586</v>
+        <v>-7.070912098240622</v>
       </c>
       <c r="F59" t="n">
-        <v>-4.749513857692066</v>
+        <v>-2.403196349142845</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8445122444663519</v>
+        <v>-4.43366934706876</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>3.409641707169185</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.946093217487067</v>
+        <v>-7.030000888778278</v>
       </c>
       <c r="F60" t="n">
-        <v>-5.143484698048674</v>
+        <v>-2.461615092195612</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8184587268725622</v>
+        <v>-4.372996771850345</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>3.145177972447119</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.891805685236843</v>
+        <v>-6.889593500567347</v>
       </c>
       <c r="F61" t="n">
-        <v>-5.121709061463434</v>
+        <v>-2.490822019218562</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8279678452287117</v>
+        <v>-4.355895025829877</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>2.862053226868059</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.430092765732263</v>
+        <v>-6.646952089762358</v>
       </c>
       <c r="F62" t="n">
-        <v>-5.171576931505967</v>
+        <v>-2.466665436289135</v>
       </c>
       <c r="G62" t="n">
-        <v>1.124104769171484</v>
+        <v>-4.403117943157408</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>2.563442670441155</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.399736922095587</v>
+        <v>-6.388372516571227</v>
       </c>
       <c r="F63" t="n">
-        <v>-5.251766422137106</v>
+        <v>-2.613125415001306</v>
       </c>
       <c r="G63" t="n">
-        <v>0.8120199048288351</v>
+        <v>-4.361043150060739</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>2.252969563210547</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.904436525415301</v>
+        <v>-6.183308012545346</v>
       </c>
       <c r="F64" t="n">
-        <v>-5.748929530433687</v>
+        <v>-2.843123854048453</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9888161711502135</v>
+        <v>-4.189013665434602</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>1.934552638024266</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.031320920632345</v>
+        <v>-6.055499595030455</v>
       </c>
       <c r="F65" t="n">
-        <v>-5.547619783681597</v>
+        <v>-2.672272620077243</v>
       </c>
       <c r="G65" t="n">
-        <v>1.091108861826675</v>
+        <v>-4.156017758089793</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>1.611285296674934</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.792923167787838</v>
+        <v>-5.961259098663803</v>
       </c>
       <c r="F66" t="n">
-        <v>-5.60287533929147</v>
+        <v>-2.741799186731641</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5163278805109521</v>
+        <v>-4.310578821180442</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>1.288299351019292</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.475093720376564</v>
+        <v>-5.800171211405822</v>
       </c>
       <c r="F67" t="n">
-        <v>-5.890422278169073</v>
+        <v>-2.9241249198195</v>
       </c>
       <c r="G67" t="n">
-        <v>0.457879803416984</v>
+        <v>-4.253905453579164</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.9713922399012951</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.677469270625641</v>
+        <v>-5.903979494211027</v>
       </c>
       <c r="F68" t="n">
-        <v>-5.9447831455223</v>
+        <v>-3.016140918061706</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3089166531889524</v>
+        <v>-4.135620821441024</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.6655125671310858</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.779859741439441</v>
+        <v>-5.944118240588399</v>
       </c>
       <c r="F69" t="n">
-        <v>-5.657954890654134</v>
+        <v>-2.957194162267312</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7390954784019318</v>
+        <v>-3.865273408721228</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.3762014941792167</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.798951313254745</v>
+        <v>-5.802517934701942</v>
       </c>
       <c r="F70" t="n">
-        <v>-5.572465716579258</v>
+        <v>-2.968086869566799</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4698872042821271</v>
+        <v>-4.004566103366502</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1087233416418933</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.830592965697417</v>
+        <v>-6.158075848105198</v>
       </c>
       <c r="F71" t="n">
-        <v>-5.908536048610992</v>
+        <v>-3.098139341233603</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6873404517087701</v>
+        <v>-3.786707068369905</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1323030061557326</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.107877879161366</v>
+        <v>-6.271833259884575</v>
       </c>
       <c r="F72" t="n">
-        <v>-5.947711660635582</v>
+        <v>-3.095191270092854</v>
       </c>
       <c r="G72" t="n">
-        <v>0.385737618088787</v>
+        <v>-3.694422174750018</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3411088306012846</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.342002640004189</v>
+        <v>-6.430833541210383</v>
       </c>
       <c r="F73" t="n">
-        <v>-6.082076236359005</v>
+        <v>-3.170247303513732</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4625634719954885</v>
+        <v>-3.664085887140811</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.512611549962811</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.274519678220162</v>
+        <v>-6.541520656677338</v>
       </c>
       <c r="F74" t="n">
-        <v>-6.168914776329149</v>
+        <v>-3.099987385829297</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7215928338183762</v>
+        <v>-3.2273655707399</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6429085008875717</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.856815063090333</v>
+        <v>-7.034151655608288</v>
       </c>
       <c r="F75" t="n">
-        <v>-6.406261392697268</v>
+        <v>-3.354709532602433</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7574634772009312</v>
+        <v>-3.099796714561488</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7289673331058099</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.345935755090839</v>
+        <v>-7.244603845201509</v>
       </c>
       <c r="F76" t="n">
-        <v>-6.465452598835008</v>
+        <v>-3.398348807896516</v>
       </c>
       <c r="G76" t="n">
-        <v>0.8637895985425975</v>
+        <v>-2.774179079211218</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7682079772560335</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.945484445194353</v>
+        <v>-7.849711336112706</v>
       </c>
       <c r="F77" t="n">
-        <v>-6.215140336255829</v>
+        <v>-3.389480149439932</v>
       </c>
       <c r="G77" t="n">
-        <v>1.088532355207811</v>
+        <v>-2.605092776718965</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.759066274497184</v>
       </c>
       <c r="E78" t="n">
-        <v>-10.05087423078322</v>
+        <v>-8.508857019923912</v>
       </c>
       <c r="F78" t="n">
-        <v>-6.935085709463991</v>
+        <v>-3.551311165741684</v>
       </c>
       <c r="G78" t="n">
-        <v>1.477550631608233</v>
+        <v>-2.349818172169868</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7005684545357919</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.98646880788414</v>
+        <v>-9.320036150275573</v>
       </c>
       <c r="F79" t="n">
-        <v>-7.12894949875777</v>
+        <v>-3.608199649645106</v>
       </c>
       <c r="G79" t="n">
-        <v>1.807382590877783</v>
+        <v>-2.009885524713271</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5932651937771967</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.87293864398629</v>
+        <v>-9.930937114324065</v>
       </c>
       <c r="F80" t="n">
-        <v>-7.224539361019691</v>
+        <v>-3.68632109037154</v>
       </c>
       <c r="G80" t="n">
-        <v>2.106961375654864</v>
+        <v>-1.721409674530955</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4394308163146609</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.16636941169044</v>
+        <v>-10.76156471399231</v>
       </c>
       <c r="F81" t="n">
-        <v>-6.920961368625473</v>
+        <v>-3.591650361400599</v>
       </c>
       <c r="G81" t="n">
-        <v>2.339257647929461</v>
+        <v>-1.382176155056327</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.24388567178918</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.0838257733151</v>
+        <v>-11.64606916933396</v>
       </c>
       <c r="F82" t="n">
-        <v>-7.004685611221392</v>
+        <v>-3.715938693971311</v>
       </c>
       <c r="G82" t="n">
-        <v>2.372903793187569</v>
+        <v>-1.320638225622469</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.01066090579497524</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.00849342006845</v>
+        <v>-12.5229516629701</v>
       </c>
       <c r="F83" t="n">
-        <v>-7.497101493850199</v>
+        <v>-3.853803798611446</v>
       </c>
       <c r="G83" t="n">
-        <v>2.358236772586825</v>
+        <v>-1.133227925393018</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2554282565949038</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.91513276306228</v>
+        <v>-13.72053345104838</v>
       </c>
       <c r="F84" t="n">
-        <v>-7.36512275347783</v>
+        <v>-3.824127526929272</v>
       </c>
       <c r="G84" t="n">
-        <v>2.118474986826449</v>
+        <v>-1.017309572578465</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.5488750449774644</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.31204425011155</v>
+        <v>-15.0402719647034</v>
       </c>
       <c r="F85" t="n">
-        <v>-7.13682568882037</v>
+        <v>-3.79009026112181</v>
       </c>
       <c r="G85" t="n">
-        <v>2.347177839053863</v>
+        <v>-0.8521442535934771</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.8642457506550226</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.0248491378528</v>
+        <v>-16.32523986152092</v>
       </c>
       <c r="F86" t="n">
-        <v>-6.798217962224707</v>
+        <v>-3.668784222739916</v>
       </c>
       <c r="G86" t="n">
-        <v>2.068171995172761</v>
+        <v>-0.8737878869933096</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.196566534052508</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.38947362355297</v>
+        <v>-17.72073842558566</v>
       </c>
       <c r="F87" t="n">
-        <v>-6.854578433386503</v>
+        <v>-3.598015848341322</v>
       </c>
       <c r="G87" t="n">
-        <v>1.712530968652766</v>
+        <v>-0.7866902296592198</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.538951052923758</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.91731271449823</v>
+        <v>-19.14820131654628</v>
       </c>
       <c r="F88" t="n">
-        <v>-6.812376526111293</v>
+        <v>-3.591958368833215</v>
       </c>
       <c r="G88" t="n">
-        <v>1.180167010914398</v>
+        <v>-1.143837070294224</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.888829714652651</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.83145668303277</v>
+        <v>-20.69933163620552</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.744639335970186</v>
+        <v>-3.529291078813099</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5893940881369961</v>
+        <v>-1.183878036534257</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.243234427536998</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.29565557159139</v>
+        <v>-22.39295695000786</v>
       </c>
       <c r="F90" t="n">
-        <v>-6.43844572490217</v>
+        <v>-3.263055320868379</v>
       </c>
       <c r="G90" t="n">
-        <v>0.15632585986567</v>
+        <v>-1.419029488819132</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.599059471501372</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.04399620574481</v>
+        <v>-24.03392277084667</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.770274934414638</v>
+        <v>-3.150236598407449</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1514028993585576</v>
+        <v>-1.536233650439684</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.953052203183561</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.71961041824944</v>
+        <v>-25.89198983061769</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.091773672417315</v>
+        <v>-2.896956708660054</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.7336200601188581</v>
+        <v>-1.812750989825527</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.301502934627159</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.62395437251925</v>
+        <v>-27.80467443060246</v>
       </c>
       <c r="F93" t="n">
-        <v>-4.810910005926784</v>
+        <v>-2.73942312939432</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.528650800789099</v>
+        <v>-2.319882783123747</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.637033273888781</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.36642819843237</v>
+        <v>-29.83013375198635</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.025415182212678</v>
+        <v>-2.928681474219465</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.71758158215416</v>
+        <v>-2.488030396297553</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>3.95670261874141</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.73480001695825</v>
+        <v>-32.05445098317858</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.267516448696655</v>
+        <v>-2.732495406663901</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.289869169967757</v>
+        <v>-2.871895659460248</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.254485188018984</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.62533252682902</v>
+        <v>-34.13947796422896</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.744343823868087</v>
+        <v>-2.817402788921613</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.084396342930706</v>
+        <v>-3.232577252060031</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>4.525382895069032</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.57102036766889</v>
+        <v>-36.18460576023845</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.665366806939943</v>
+        <v>-2.893377955633472</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.79088228023425</v>
+        <v>-3.625814741386601</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.762775413378932</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.84426922408864</v>
+        <v>-38.3483408628393</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.500959284019327</v>
+        <v>-3.001420118385425</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.925882426850372</v>
+        <v>-3.825555116934411</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.962271110605989</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.59976736429523</v>
+        <v>-40.57398057038903</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.889104963631788</v>
+        <v>-2.845685693646717</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.143453010441822</v>
+        <v>-4.006854158580218</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>5.113152452756473</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.86827632855749</v>
+        <v>-42.83097836798315</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.839980222633026</v>
+        <v>-2.879947853770056</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.890635040905567</v>
+        <v>-4.433850240322836</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>5.216612857416019</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.78071281144376</v>
+        <v>-44.88417302532305</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.383591431606516</v>
+        <v>-2.846247929436412</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.208039144719419</v>
+        <v>-4.74925474032812</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>5.261754985469849</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.58754909957032</v>
+        <v>-47.42154069971414</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.810834499133696</v>
+        <v>-2.84444388590252</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.452509044092634</v>
+        <v>-4.915720535139707</v>
       </c>
     </row>
   </sheetData>
